--- a/DataDrivenFramework/src/test/resources/excel/TestData.xlsx
+++ b/DataDrivenFramework/src/test/resources/excel/TestData.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Komal\Komal\Software\WorkspaceNeon\DataDrivenFramework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\DataDrivenFrameworkBasic\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE764A4D-9533-40B2-9DF1-AEE7F55D66A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE463D9-AF96-4411-AE4B-983D004D11F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{082EBD24-DEEB-4167-9627-477A79054D23}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{082EBD24-DEEB-4167-9627-477A79054D23}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId2"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>firstName</t>
   </si>
@@ -52,6 +54,69 @@
   </si>
   <si>
     <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Joy Jain</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>Account created successfully</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>A789PR</t>
+  </si>
+  <si>
+    <t>Ruhi</t>
+  </si>
+  <si>
+    <t>Agarwal</t>
+  </si>
+  <si>
+    <t>123A67</t>
+  </si>
+  <si>
+    <t>Kittu</t>
+  </si>
+  <si>
+    <t>K456AB</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>AddCustomerLoginTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
+    <t>BankManagerLoginTest</t>
+  </si>
+  <si>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -403,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480B1693-78B4-4CD1-9C8C-8BAD5BFBF9D1}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +489,11 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -437,6 +505,144 @@
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E130093-8632-4066-A444-6D55D089F999}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D112CD-BE88-4BDD-92B5-6F5284196654}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
